--- a/Pythonscripts/testdatas/chain_customer.xlsx
+++ b/Pythonscripts/testdatas/chain_customer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -425,12 +425,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" activeCellId="1" sqref="A2 B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
